--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6300"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="47">
   <si>
     <t>Agri</t>
   </si>
@@ -164,7 +164,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,12 +178,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -202,7 +196,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -210,32 +204,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -547,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:S40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -562,78 +544,78 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1">
@@ -707,7 +689,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
@@ -779,7 +761,7 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
@@ -837,7 +819,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1">
@@ -909,7 +891,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1">
@@ -979,7 +961,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="1">
@@ -1053,7 +1035,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="1">
@@ -1121,7 +1103,7 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1">
@@ -1193,7 +1175,7 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1">
@@ -1265,7 +1247,7 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="1">
@@ -1333,7 +1315,7 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="1">
@@ -1405,7 +1387,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="1">
@@ -1465,7 +1447,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="1">
@@ -1533,7 +1515,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="1">
@@ -1605,7 +1587,7 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="1">
@@ -1677,7 +1659,7 @@
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="1">
@@ -1751,7 +1733,7 @@
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="1">
@@ -1825,7 +1807,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="1">
@@ -1899,7 +1881,7 @@
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="1">
@@ -1963,7 +1945,7 @@
       <c r="X20" s="1"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="1">
@@ -2027,7 +2009,7 @@
       <c r="X21" s="1"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="1">
@@ -3169,86 +3151,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:XFD52"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B3" sqref="A1:X34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1">
@@ -3318,7 +3300,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
@@ -3390,7 +3372,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
@@ -3448,7 +3430,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1">
@@ -3520,7 +3502,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1">
@@ -3590,7 +3572,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="1">
@@ -3664,7 +3646,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="1">
@@ -3732,7 +3714,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1">
@@ -3804,7 +3786,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1">
@@ -3876,7 +3858,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="1">
@@ -3944,7 +3926,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="1">
@@ -4016,7 +3998,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="1">
@@ -4076,7 +4058,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="1">
@@ -4144,7 +4126,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="1">
@@ -4216,7 +4198,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="1">
@@ -4288,7 +4270,7 @@
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="1">
@@ -4362,7 +4344,7 @@
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="1">
@@ -4436,7 +4418,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="1">
@@ -4510,7 +4492,7 @@
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="1">
@@ -4574,7 +4556,7 @@
       <c r="X20" s="1"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="1">
@@ -4638,7 +4620,7 @@
       <c r="X21" s="1"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="1">
@@ -5249,78 +5231,78 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" s="4" t="s">
+      <c r="C40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H40" s="4" t="s">
+      <c r="G40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="I40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J40" s="4" t="s">
+      <c r="J40" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K40" s="4" t="s">
+      <c r="K40" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L40" s="4" t="s">
+      <c r="L40" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M40" s="4" t="s">
+      <c r="M40" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N40" s="4" t="s">
+      <c r="N40" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O40" s="4" t="s">
+      <c r="O40" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P40" s="4" t="s">
+      <c r="P40" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q40" s="4" t="s">
+      <c r="Q40" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R40" s="4" t="s">
+      <c r="R40" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S40" s="4" t="s">
+      <c r="S40" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="T40" s="4" t="s">
+      <c r="T40" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="U40" s="4" t="s">
+      <c r="U40" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V40" s="4" t="s">
+      <c r="V40" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="W40" s="4" t="s">
+      <c r="W40" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="X40" s="4" t="s">
+      <c r="X40" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B41" s="1">
@@ -5392,7 +5374,7 @@
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B42" s="1">
@@ -5464,7 +5446,7 @@
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B43" s="1">
@@ -5534,7 +5516,7 @@
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C46">
@@ -5545,7 +5527,7 @@
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K47">
@@ -5553,12 +5535,12 @@
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B50">
@@ -5643,7 +5625,7 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B51">
@@ -5728,7 +5710,7 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B52">
@@ -5821,23 +5803,1794 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="A1:G42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="88.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.125" customWidth="1"/>
-    <col min="6" max="6" width="46.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="3"/>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1">
+        <v>158072975.60928351</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10198200.217552073</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5517362.5119740469</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5089478.3883494223</v>
+      </c>
+      <c r="F2" s="1">
+        <v>677042.01398631744</v>
+      </c>
+      <c r="G2" s="1">
+        <v>8838773.9886087328</v>
+      </c>
+      <c r="H2" s="1">
+        <v>16381843.652226737</v>
+      </c>
+      <c r="I2" s="1">
+        <v>7176171.3126562359</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3965979.5335705569</v>
+      </c>
+      <c r="K2" s="1">
+        <v>30799542.959319036</v>
+      </c>
+      <c r="L2" s="1">
+        <v>13183707.286596216</v>
+      </c>
+      <c r="M2" s="1">
+        <v>6615361.1104766503</v>
+      </c>
+      <c r="N2" s="1">
+        <v>18974047.176751774</v>
+      </c>
+      <c r="O2" s="1">
+        <v>68299683.097864851</v>
+      </c>
+      <c r="P2" s="1">
+        <v>65732247.86517293</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>166877.01829228349</v>
+      </c>
+      <c r="R2" s="1">
+        <v>5419440.6512154453</v>
+      </c>
+      <c r="S2" s="1">
+        <v>30986201.676931966</v>
+      </c>
+      <c r="T2" s="1">
+        <v>28368775.435300283</v>
+      </c>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1">
+        <v>773922.72369839263</v>
+      </c>
+      <c r="X2" s="1">
+        <v>220679.22716823095</v>
+      </c>
+      <c r="Y2">
+        <f>SUM(B2:X2)-2*X2</f>
+        <v>485016955.0026592</v>
+      </c>
+      <c r="Z2">
+        <f>W2-X2</f>
+        <v>553243.4965301617</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>87613392.785712436</v>
+      </c>
+      <c r="C3" s="1">
+        <v>57969414.968160473</v>
+      </c>
+      <c r="D3" s="1">
+        <v>313775.27000044857</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1371104.3511705524</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2158682.0477110441</v>
+      </c>
+      <c r="G3" s="1">
+        <v>53558.262973944999</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1608489.0848092865</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1819635.3428992853</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2455581.4804139365</v>
+      </c>
+      <c r="K3" s="1">
+        <v>17243351.862618379</v>
+      </c>
+      <c r="L3" s="1">
+        <v>9944176.6225156356</v>
+      </c>
+      <c r="M3" s="1">
+        <v>18643570.241715506</v>
+      </c>
+      <c r="N3" s="1">
+        <v>3659223.235946266</v>
+      </c>
+      <c r="O3" s="1">
+        <v>73476779.186030358</v>
+      </c>
+      <c r="P3" s="1">
+        <v>6834747.19342939</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>27173.870427380774</v>
+      </c>
+      <c r="R3" s="1">
+        <v>523917.46161970228</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1602246.3022833779</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1614640.3621627428</v>
+      </c>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1">
+        <v>2558023.6030048048</v>
+      </c>
+      <c r="W3" s="1">
+        <v>1374027.8344781192</v>
+      </c>
+      <c r="X3" s="1">
+        <v>17989064.458149433</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z24" si="0">W3-X3</f>
+        <v>-16615036.623671314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4806115.2510095723</v>
+      </c>
+      <c r="C4" s="1">
+        <v>759369.17641897383</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1010813.2687075626</v>
+      </c>
+      <c r="E4" s="1">
+        <v>223199012.03403351</v>
+      </c>
+      <c r="F4" s="1">
+        <v>14140524.016032696</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
+        <v>178078.32417834405</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1">
+        <v>10604903.395053271</v>
+      </c>
+      <c r="L4" s="1">
+        <v>290782.66756087472</v>
+      </c>
+      <c r="M4" s="1">
+        <v>58411.849377758568</v>
+      </c>
+      <c r="N4" s="1">
+        <v>180244.04184741873</v>
+      </c>
+      <c r="O4" s="1">
+        <v>4088483.247067709</v>
+      </c>
+      <c r="P4" s="1">
+        <v>503361.86910305097</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1">
+        <v>3332973.4094847641</v>
+      </c>
+      <c r="W4" s="1">
+        <v>1869656.3147666394</v>
+      </c>
+      <c r="X4" s="1">
+        <v>142560819.47961283</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="0"/>
+        <v>-140691163.16484618</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>19165739.913935617</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1674027.0664375466</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3886291.589520345</v>
+      </c>
+      <c r="E5" s="1">
+        <v>27111798.765827388</v>
+      </c>
+      <c r="F5" s="1">
+        <v>323580.53419945511</v>
+      </c>
+      <c r="G5" s="1">
+        <v>14480701.862109581</v>
+      </c>
+      <c r="H5" s="1">
+        <v>9785310.8399841823</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1378479.7958191596</v>
+      </c>
+      <c r="J5" s="1">
+        <v>335293.89024795208</v>
+      </c>
+      <c r="K5" s="1">
+        <v>23247290.793120835</v>
+      </c>
+      <c r="L5" s="1">
+        <v>5725403.5925196912</v>
+      </c>
+      <c r="M5" s="1">
+        <v>471430.63501727185</v>
+      </c>
+      <c r="N5" s="1">
+        <v>6350664.5013540238</v>
+      </c>
+      <c r="O5" s="1">
+        <v>60600878.687883556</v>
+      </c>
+      <c r="P5" s="1">
+        <v>28513051.79116099</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>13011619.987474933</v>
+      </c>
+      <c r="R5" s="1">
+        <v>76146719.971878871</v>
+      </c>
+      <c r="S5" s="1">
+        <v>46232465.870655321</v>
+      </c>
+      <c r="T5" s="1">
+        <v>23164783.150884002</v>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1">
+        <v>4799711.0907781981</v>
+      </c>
+      <c r="W5" s="1">
+        <v>11255569.589966968</v>
+      </c>
+      <c r="X5" s="1">
+        <v>28744008.5822636</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="0"/>
+        <v>-17488438.992296632</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>629421.19995703921</v>
+      </c>
+      <c r="C6" s="1">
+        <v>33984.192356220934</v>
+      </c>
+      <c r="D6" s="1">
+        <v>14072.643398573498</v>
+      </c>
+      <c r="E6" s="1">
+        <v>332581.04179454368</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3259759.3830443169</v>
+      </c>
+      <c r="G6" s="1">
+        <v>7814.7011586254721</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2905.1888157452399</v>
+      </c>
+      <c r="I6" s="1">
+        <v>31293.354499334775</v>
+      </c>
+      <c r="J6" s="1">
+        <v>14025.342099198031</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1114494.9499984914</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1610.7285583662822</v>
+      </c>
+      <c r="M6" s="1">
+        <v>5091.5146356513451</v>
+      </c>
+      <c r="N6" s="1">
+        <v>8323.9502975281666</v>
+      </c>
+      <c r="O6" s="1">
+        <v>757931.73304696893</v>
+      </c>
+      <c r="P6" s="1">
+        <v>686418.15204063326</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>9599.8413736645725</v>
+      </c>
+      <c r="R6" s="1">
+        <v>6777004.1850966765</v>
+      </c>
+      <c r="S6" s="1">
+        <v>3050215.3780331844</v>
+      </c>
+      <c r="T6" s="1">
+        <v>13820009.078290354</v>
+      </c>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1">
+        <v>630580.53566117329</v>
+      </c>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1">
+        <v>0.14907470670795944</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="0"/>
+        <v>-0.14907470670795944</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>48629.770770214876</v>
+      </c>
+      <c r="C7" s="1">
+        <v>157621.68907511793</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4000.2984434942528</v>
+      </c>
+      <c r="E7" s="1">
+        <v>13333.415470057285</v>
+      </c>
+      <c r="F7" s="1">
+        <v>608.42090067520235</v>
+      </c>
+      <c r="G7" s="1">
+        <v>123969205.83088493</v>
+      </c>
+      <c r="H7" s="1">
+        <v>90574.197962869977</v>
+      </c>
+      <c r="I7" s="1">
+        <v>321098012.95348644</v>
+      </c>
+      <c r="J7" s="1">
+        <v>9956220.0544262398</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2973059.8524105782</v>
+      </c>
+      <c r="L7" s="1">
+        <v>32106.907941588986</v>
+      </c>
+      <c r="M7" s="1">
+        <v>22847.773058238585</v>
+      </c>
+      <c r="N7" s="1">
+        <v>13065.42816818356</v>
+      </c>
+      <c r="O7" s="1">
+        <v>41772622.753226623</v>
+      </c>
+      <c r="P7" s="1">
+        <v>110088313.29505725</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>5281.052154602311</v>
+      </c>
+      <c r="R7" s="1">
+        <v>51129.907020108447</v>
+      </c>
+      <c r="S7" s="1">
+        <v>46549737.797277421</v>
+      </c>
+      <c r="T7" s="1">
+        <v>208055199.71968612</v>
+      </c>
+      <c r="U7" s="1">
+        <v>6078408.6102848714</v>
+      </c>
+      <c r="V7" s="1">
+        <v>67735217.899515927</v>
+      </c>
+      <c r="W7" s="1">
+        <v>7870569.9834309667</v>
+      </c>
+      <c r="X7" s="1">
+        <v>51309081.123671159</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="0"/>
+        <v>-43438511.140240192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
+        <v>177687.01794439455</v>
+      </c>
+      <c r="C8" s="1">
+        <v>750045.09201080666</v>
+      </c>
+      <c r="D8" s="1">
+        <v>12674340.354996135</v>
+      </c>
+      <c r="E8" s="1">
+        <v>88187.150585473457</v>
+      </c>
+      <c r="F8" s="1">
+        <v>81544.039019929682</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5400.619901971645</v>
+      </c>
+      <c r="H8" s="1">
+        <v>19149896.717479173</v>
+      </c>
+      <c r="I8" s="1">
+        <v>366699.44783967279</v>
+      </c>
+      <c r="J8" s="1">
+        <v>17013.503568019725</v>
+      </c>
+      <c r="K8" s="1">
+        <v>11731147.806140132</v>
+      </c>
+      <c r="L8" s="1">
+        <v>14558944.913094917</v>
+      </c>
+      <c r="M8" s="1">
+        <v>34180017.217385329</v>
+      </c>
+      <c r="N8" s="1">
+        <v>49626733.789424747</v>
+      </c>
+      <c r="O8" s="1">
+        <v>120657331.10355295</v>
+      </c>
+      <c r="P8" s="1">
+        <v>10003686.727805715</v>
+      </c>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1">
+        <v>9796.7909777738387</v>
+      </c>
+      <c r="S8" s="1">
+        <v>119585.6348111327</v>
+      </c>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1">
+        <v>-139186.93244638469</v>
+      </c>
+      <c r="W8" s="1">
+        <v>1871641.8461864365</v>
+      </c>
+      <c r="X8" s="1">
+        <v>87887045.736546427</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="0"/>
+        <v>-86015403.890359998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1592169.7585273485</v>
+      </c>
+      <c r="C9" s="1">
+        <v>894643.23441576841</v>
+      </c>
+      <c r="D9" s="1">
+        <v>514303.79365178093</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2198251.1016361825</v>
+      </c>
+      <c r="F9" s="1">
+        <v>102157.58989594009</v>
+      </c>
+      <c r="G9" s="1">
+        <v>95497687.063331038</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1089683.8285150784</v>
+      </c>
+      <c r="I9" s="1">
+        <v>203361825.09970534</v>
+      </c>
+      <c r="J9" s="1">
+        <v>555372.83521625982</v>
+      </c>
+      <c r="K9" s="1">
+        <v>3487365.6865851963</v>
+      </c>
+      <c r="L9" s="1">
+        <v>787402.68602280016</v>
+      </c>
+      <c r="M9" s="1">
+        <v>660254.40515410132</v>
+      </c>
+      <c r="N9" s="1">
+        <v>954258.23296014173</v>
+      </c>
+      <c r="O9" s="1">
+        <v>30507009.288265567</v>
+      </c>
+      <c r="P9" s="1">
+        <v>29714653.291164391</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1964147.1437109238</v>
+      </c>
+      <c r="R9" s="1">
+        <v>3789811.7566097956</v>
+      </c>
+      <c r="S9" s="1">
+        <v>112112541.3175842</v>
+      </c>
+      <c r="T9" s="1">
+        <v>382799643.95020974</v>
+      </c>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1">
+        <v>18372947.835327823</v>
+      </c>
+      <c r="W9" s="1">
+        <v>28716075.605846066</v>
+      </c>
+      <c r="X9" s="1">
+        <v>34333778.386552006</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="0"/>
+        <v>-5617702.78070594</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
+        <v>310028.41813257383</v>
+      </c>
+      <c r="C10" s="1">
+        <v>51787.190724940352</v>
+      </c>
+      <c r="D10" s="1">
+        <v>14277.197142964207</v>
+      </c>
+      <c r="E10" s="1">
+        <v>67210.417251600127</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1709.1704373753216</v>
+      </c>
+      <c r="G10" s="1">
+        <v>33018.124145904192</v>
+      </c>
+      <c r="H10" s="1">
+        <v>46497.951772662062</v>
+      </c>
+      <c r="I10" s="1">
+        <v>8392581.5336682405</v>
+      </c>
+      <c r="J10" s="1">
+        <v>37095991.761846021</v>
+      </c>
+      <c r="K10" s="1">
+        <v>423062.34745714115</v>
+      </c>
+      <c r="L10" s="1">
+        <v>3917877.081760969</v>
+      </c>
+      <c r="M10" s="1">
+        <v>18286.815155516051</v>
+      </c>
+      <c r="N10" s="1">
+        <v>96271.542445746483</v>
+      </c>
+      <c r="O10" s="1">
+        <v>8421627.3658528514</v>
+      </c>
+      <c r="P10" s="1">
+        <v>42109500.302607909</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>9935.9310860489368</v>
+      </c>
+      <c r="R10" s="1">
+        <v>311455.81356123264</v>
+      </c>
+      <c r="S10" s="1">
+        <v>24229567.634272333</v>
+      </c>
+      <c r="T10" s="1">
+        <v>1588302.2663420711</v>
+      </c>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1">
+        <v>-103045.3802258147</v>
+      </c>
+      <c r="W10" s="1">
+        <v>5890231.9300965825</v>
+      </c>
+      <c r="X10" s="1">
+        <v>8996846.4669402447</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="0"/>
+        <v>-3106614.5368436622</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>269550.83040701383</v>
+      </c>
+      <c r="C11" s="1">
+        <v>255944.24778077373</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1391142.4425867503</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4007656.3814019817</v>
+      </c>
+      <c r="F11" s="1">
+        <v>41295.965910001476</v>
+      </c>
+      <c r="G11" s="1">
+        <v>51927244.972957991</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2355500.4651537593</v>
+      </c>
+      <c r="I11" s="1">
+        <v>983934.97967416269</v>
+      </c>
+      <c r="J11" s="1">
+        <v>6501313.8421521839</v>
+      </c>
+      <c r="K11" s="1">
+        <v>66413606.295183189</v>
+      </c>
+      <c r="L11" s="1">
+        <v>6405184.3235602807</v>
+      </c>
+      <c r="M11" s="1">
+        <v>97062.780759451198</v>
+      </c>
+      <c r="N11" s="1">
+        <v>9190102.1907617282</v>
+      </c>
+      <c r="O11" s="1">
+        <v>126008641.51855816</v>
+      </c>
+      <c r="P11" s="1">
+        <v>19608472.471308</v>
+      </c>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1">
+        <v>49635.907419814277</v>
+      </c>
+      <c r="S11" s="1">
+        <v>2540519.2758154185</v>
+      </c>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1">
+        <v>-216195.04461099743</v>
+      </c>
+      <c r="W11" s="1">
+        <v>26887956.307822485</v>
+      </c>
+      <c r="X11" s="1">
+        <v>44510482.952048272</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="0"/>
+        <v>-17622526.644225787</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1">
+        <v>131238.35827145827</v>
+      </c>
+      <c r="C12" s="1">
+        <v>449053.11540807545</v>
+      </c>
+      <c r="D12" s="1">
+        <v>33899.432595758801</v>
+      </c>
+      <c r="E12" s="1">
+        <v>193825.24147843989</v>
+      </c>
+      <c r="F12" s="1">
+        <v>595.70400972933544</v>
+      </c>
+      <c r="G12" s="1">
+        <v>60457.20614658625</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1062042.350544272</v>
+      </c>
+      <c r="I12" s="1">
+        <v>3702272.4969222695</v>
+      </c>
+      <c r="J12" s="1">
+        <v>37066.661953426345</v>
+      </c>
+      <c r="K12" s="1">
+        <v>609006.73953059746</v>
+      </c>
+      <c r="L12" s="1">
+        <v>17091445.47901167</v>
+      </c>
+      <c r="M12" s="1">
+        <v>161927.06763589449</v>
+      </c>
+      <c r="N12" s="1">
+        <v>129575.43553197086</v>
+      </c>
+      <c r="O12" s="1">
+        <v>35320741.309396766</v>
+      </c>
+      <c r="P12" s="1">
+        <v>99737027.85317184</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1.5508912411058184</v>
+      </c>
+      <c r="R12" s="1">
+        <v>34883.948834873772</v>
+      </c>
+      <c r="S12" s="1">
+        <v>1016329.2902630145</v>
+      </c>
+      <c r="T12" s="1">
+        <v>2282871.6017782851</v>
+      </c>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1">
+        <v>229194.46212347271</v>
+      </c>
+      <c r="W12" s="1">
+        <v>10182095.538912199</v>
+      </c>
+      <c r="X12" s="1">
+        <v>4324984.583131874</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="0"/>
+        <v>5857110.9557803255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>20393.566180246467</v>
+      </c>
+      <c r="C13" s="1">
+        <v>697515.87741378311</v>
+      </c>
+      <c r="D13" s="1">
+        <v>134684.64997265118</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1">
+        <v>23987.006817806778</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1">
+        <v>486106.24110155978</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1">
+        <v>70337.864429482288</v>
+      </c>
+      <c r="L13" s="1">
+        <v>244466.64133821236</v>
+      </c>
+      <c r="M13" s="1">
+        <v>18806118.106102906</v>
+      </c>
+      <c r="N13" s="1">
+        <v>315067.2170390219</v>
+      </c>
+      <c r="O13" s="1">
+        <v>108384403.39701831</v>
+      </c>
+      <c r="P13" s="1">
+        <v>29357593.760142624</v>
+      </c>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1">
+        <v>40556.022366795936</v>
+      </c>
+      <c r="S13" s="1">
+        <v>239747.84740410361</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1">
+        <v>311472.568753178</v>
+      </c>
+      <c r="W13" s="1">
+        <v>1653982.5908633671</v>
+      </c>
+      <c r="X13" s="1">
+        <v>664099.71117671742</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="0"/>
+        <v>989882.87968664966</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1">
+        <v>24523.602929394125</v>
+      </c>
+      <c r="C14" s="1">
+        <v>53601.458970069085</v>
+      </c>
+      <c r="D14" s="1">
+        <v>778.25176761135185</v>
+      </c>
+      <c r="E14" s="1">
+        <v>8453.6158520827612</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5809.6668262206076</v>
+      </c>
+      <c r="G14" s="1">
+        <v>657.87784274955288</v>
+      </c>
+      <c r="H14" s="1">
+        <v>455284.34338529973</v>
+      </c>
+      <c r="I14" s="1">
+        <v>5564.3333072717314</v>
+      </c>
+      <c r="J14" s="1">
+        <v>51274.935208536022</v>
+      </c>
+      <c r="K14" s="1">
+        <v>951307.69723954797</v>
+      </c>
+      <c r="L14" s="1">
+        <v>96507.356977970136</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1479702.207778659</v>
+      </c>
+      <c r="N14" s="1">
+        <v>46610409.040053427</v>
+      </c>
+      <c r="O14" s="1">
+        <v>128884241.64233238</v>
+      </c>
+      <c r="P14" s="1">
+        <v>106856087.84421617</v>
+      </c>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1">
+        <v>3403.1293881225756</v>
+      </c>
+      <c r="S14" s="1">
+        <v>664877.18085096625</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1">
+        <v>532224.84271853312</v>
+      </c>
+      <c r="W14" s="1">
+        <v>4748091.7427348774</v>
+      </c>
+      <c r="X14" s="1">
+        <v>57592118.197170332</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="0"/>
+        <v>-52844026.454435453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1">
+        <v>858793.9459993114</v>
+      </c>
+      <c r="C15" s="1">
+        <v>21398167.507617269</v>
+      </c>
+      <c r="D15" s="1">
+        <v>6850954.5103113335</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5881803.0128985746</v>
+      </c>
+      <c r="F15" s="1">
+        <v>164577.40178943874</v>
+      </c>
+      <c r="G15" s="1">
+        <v>23439296.244018745</v>
+      </c>
+      <c r="H15" s="1">
+        <v>16763022.932118304</v>
+      </c>
+      <c r="I15" s="1">
+        <v>19400861.226633802</v>
+      </c>
+      <c r="J15" s="1">
+        <v>10278002.016527873</v>
+      </c>
+      <c r="K15" s="1">
+        <v>25504984.179484259</v>
+      </c>
+      <c r="L15" s="1">
+        <v>21555231.264951997</v>
+      </c>
+      <c r="M15" s="1">
+        <v>13175615.045076618</v>
+      </c>
+      <c r="N15" s="1">
+        <v>13633727.792980382</v>
+      </c>
+      <c r="O15" s="1">
+        <v>653219821.45937455</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1098623202.1775429</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>119874.07243568324</v>
+      </c>
+      <c r="R15" s="1">
+        <v>9234419.7440272514</v>
+      </c>
+      <c r="S15" s="1">
+        <v>157128818.02851945</v>
+      </c>
+      <c r="T15" s="1">
+        <v>67084578.032427691</v>
+      </c>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1">
+        <v>31723032.419958193</v>
+      </c>
+      <c r="W15" s="1">
+        <v>168160669.01940757</v>
+      </c>
+      <c r="X15" s="1">
+        <v>119601110.70566367</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="0"/>
+        <v>48559558.313743904</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1">
+        <v>39373163.090243295</v>
+      </c>
+      <c r="C16" s="1">
+        <v>18781234.750811167</v>
+      </c>
+      <c r="D16" s="1">
+        <v>7746333.374947181</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4791797.3392718956</v>
+      </c>
+      <c r="F16" s="1">
+        <v>330186.21347289986</v>
+      </c>
+      <c r="G16" s="1">
+        <v>8299726.0756594678</v>
+      </c>
+      <c r="H16" s="1">
+        <v>16509308.450427176</v>
+      </c>
+      <c r="I16" s="1">
+        <v>9403387.2870562598</v>
+      </c>
+      <c r="J16" s="1">
+        <v>11633580.742634453</v>
+      </c>
+      <c r="K16" s="1">
+        <v>8349498.3388304869</v>
+      </c>
+      <c r="L16" s="1">
+        <v>11788543.714511393</v>
+      </c>
+      <c r="M16" s="1">
+        <v>21438458.278635509</v>
+      </c>
+      <c r="N16" s="1">
+        <v>22636548.410316173</v>
+      </c>
+      <c r="O16" s="1">
+        <v>105680803.82601583</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1662824936.9762707</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>7657226.6575621339</v>
+      </c>
+      <c r="R16" s="1">
+        <v>50235436.668971822</v>
+      </c>
+      <c r="S16" s="1">
+        <v>335892416.1764369</v>
+      </c>
+      <c r="T16" s="1">
+        <v>299438644.12349904</v>
+      </c>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1">
+        <v>2092742772.3503036</v>
+      </c>
+      <c r="W16" s="1">
+        <v>853629006.45870984</v>
+      </c>
+      <c r="X16" s="1">
+        <v>516321090.01426381</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="0"/>
+        <v>337307916.44444603</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1">
+        <v>248935.12668717027</v>
+      </c>
+      <c r="C17" s="1">
+        <v>155344.96955992581</v>
+      </c>
+      <c r="D17" s="1">
+        <v>46143.185483056346</v>
+      </c>
+      <c r="E17" s="1">
+        <v>69123.391471037205</v>
+      </c>
+      <c r="F17" s="1">
+        <v>19345.352219983164</v>
+      </c>
+      <c r="G17" s="1">
+        <v>184853.51149397396</v>
+      </c>
+      <c r="H17" s="1">
+        <v>171229.2809668688</v>
+      </c>
+      <c r="I17" s="1">
+        <v>551070.43988496019</v>
+      </c>
+      <c r="J17" s="1">
+        <v>108292.96830701138</v>
+      </c>
+      <c r="K17" s="1">
+        <v>159743.39902024268</v>
+      </c>
+      <c r="L17" s="1">
+        <v>159231.34882301788</v>
+      </c>
+      <c r="M17" s="1">
+        <v>73107.178181424228</v>
+      </c>
+      <c r="N17" s="1">
+        <v>99666.455073314544</v>
+      </c>
+      <c r="O17" s="1">
+        <v>2796849.1530502876</v>
+      </c>
+      <c r="P17" s="1">
+        <v>10461150.860223953</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>6918229.3345988449</v>
+      </c>
+      <c r="R17" s="1">
+        <v>2218670.9777970696</v>
+      </c>
+      <c r="S17" s="1">
+        <v>28039010.933750644</v>
+      </c>
+      <c r="T17" s="1">
+        <v>4462276.5285770968</v>
+      </c>
+      <c r="U17" s="1">
+        <v>776985.2816169752</v>
+      </c>
+      <c r="V17" s="1">
+        <v>295267.8518767152</v>
+      </c>
+      <c r="W17" s="1">
+        <v>15216345.014253177</v>
+      </c>
+      <c r="X17" s="1">
+        <v>22250931.888758864</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="0"/>
+        <v>-7034586.8745056875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1">
+        <v>6070471.7432525018</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6248554.8570900485</v>
+      </c>
+      <c r="D18" s="1">
+        <v>820361.01698403992</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5009787.0929886457</v>
+      </c>
+      <c r="F18" s="1">
+        <v>874977.89278942754</v>
+      </c>
+      <c r="G18" s="1">
+        <v>8880685.7931964174</v>
+      </c>
+      <c r="H18" s="1">
+        <v>6347835.1863154788</v>
+      </c>
+      <c r="I18" s="1">
+        <v>25254468.759681225</v>
+      </c>
+      <c r="J18" s="1">
+        <v>3835411.9231087561</v>
+      </c>
+      <c r="K18" s="1">
+        <v>7524226.763667726</v>
+      </c>
+      <c r="L18" s="1">
+        <v>5479407.4221366271</v>
+      </c>
+      <c r="M18" s="1">
+        <v>3946161.0543751465</v>
+      </c>
+      <c r="N18" s="1">
+        <v>3316562.7768004476</v>
+      </c>
+      <c r="O18" s="1">
+        <v>56827211.5984708</v>
+      </c>
+      <c r="P18" s="1">
+        <v>117763571.8773514</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>1487368.4972045764</v>
+      </c>
+      <c r="R18" s="1">
+        <v>49125456.782114252</v>
+      </c>
+      <c r="S18" s="1">
+        <v>66319422.195040904</v>
+      </c>
+      <c r="T18" s="1">
+        <v>57093663.532298617</v>
+      </c>
+      <c r="U18" s="1">
+        <v>18662894.047125421</v>
+      </c>
+      <c r="V18" s="1">
+        <v>21954669.903463393</v>
+      </c>
+      <c r="W18" s="1">
+        <v>41378692.489300303</v>
+      </c>
+      <c r="X18" s="1">
+        <v>10161244.646159699</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="0"/>
+        <v>31217447.843140602</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1">
+        <v>40061069.859285735</v>
+      </c>
+      <c r="C19" s="1">
+        <v>26710585.141216282</v>
+      </c>
+      <c r="D19" s="1">
+        <v>6564507.2056248803</v>
+      </c>
+      <c r="E19" s="1">
+        <v>11754220.665322216</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2214457.6823276104</v>
+      </c>
+      <c r="G19" s="1">
+        <v>36009445.171741262</v>
+      </c>
+      <c r="H19" s="1">
+        <v>18901852.389378563</v>
+      </c>
+      <c r="I19" s="1">
+        <v>75417327.352295592</v>
+      </c>
+      <c r="J19" s="1">
+        <v>10093509.92791249</v>
+      </c>
+      <c r="K19" s="1">
+        <v>18604941.73544218</v>
+      </c>
+      <c r="L19" s="1">
+        <v>14934661.875073792</v>
+      </c>
+      <c r="M19" s="1">
+        <v>9148543.4175609015</v>
+      </c>
+      <c r="N19" s="1">
+        <v>15002593.939949987</v>
+      </c>
+      <c r="O19" s="1">
+        <v>173284161.01493603</v>
+      </c>
+      <c r="P19" s="1">
+        <v>510554467.92799878</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>7426359.7835883843</v>
+      </c>
+      <c r="R19" s="1">
+        <v>101967112.70520458</v>
+      </c>
+      <c r="S19" s="1">
+        <v>888800444.83108342</v>
+      </c>
+      <c r="T19" s="1">
+        <v>910605312.95145094</v>
+      </c>
+      <c r="U19" s="1">
+        <v>707123246.42453742</v>
+      </c>
+      <c r="V19" s="1">
+        <v>240175302.18236107</v>
+      </c>
+      <c r="W19" s="1">
+        <v>188809387.56664315</v>
+      </c>
+      <c r="X19" s="1">
+        <v>72774025.450354978</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="0"/>
+        <v>116035362.11628817</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>36028790.66012235</v>
+      </c>
+      <c r="C20" s="1">
+        <v>62910288.305625819</v>
+      </c>
+      <c r="D20" s="1">
+        <v>15120003.601957381</v>
+      </c>
+      <c r="E20" s="1">
+        <v>8358499.8692376576</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1928212.9996277194</v>
+      </c>
+      <c r="G20" s="1">
+        <v>529963185.76456451</v>
+      </c>
+      <c r="H20" s="1">
+        <v>32844094.856173418</v>
+      </c>
+      <c r="I20" s="1">
+        <v>64181322.640561052</v>
+      </c>
+      <c r="J20" s="1">
+        <v>10938797.662124865</v>
+      </c>
+      <c r="K20" s="1">
+        <v>12649090.526871629</v>
+      </c>
+      <c r="L20" s="1">
+        <v>15416585.761119369</v>
+      </c>
+      <c r="M20" s="1">
+        <v>9949203.4067571107</v>
+      </c>
+      <c r="N20" s="1">
+        <v>12559836.897035778</v>
+      </c>
+      <c r="O20" s="1">
+        <v>166093729.91933459</v>
+      </c>
+      <c r="P20" s="1">
+        <v>570435382.21876121</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>5374841.2929591872</v>
+      </c>
+      <c r="R20" s="1">
+        <v>94115551.819324538</v>
+      </c>
+      <c r="S20" s="1">
+        <v>992473520.99378145</v>
+      </c>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Z20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1">
+        <v>69014891.773732543</v>
+      </c>
+      <c r="C21" s="1">
+        <v>39153128.072443828</v>
+      </c>
+      <c r="D21" s="1">
+        <v>37225121.563523397</v>
+      </c>
+      <c r="E21" s="1">
+        <v>11080827.52757426</v>
+      </c>
+      <c r="F21" s="1">
+        <v>4137611.0639642132</v>
+      </c>
+      <c r="G21" s="1">
+        <v>22581542.184512917</v>
+      </c>
+      <c r="H21" s="1">
+        <v>27715623.695939824</v>
+      </c>
+      <c r="I21" s="1">
+        <v>80445495.767655626</v>
+      </c>
+      <c r="J21" s="1">
+        <v>11341743.855812771</v>
+      </c>
+      <c r="K21" s="1">
+        <v>30029607.309075817</v>
+      </c>
+      <c r="L21" s="1">
+        <v>17705754.77340829</v>
+      </c>
+      <c r="M21" s="1">
+        <v>16131598.712151788</v>
+      </c>
+      <c r="N21" s="1">
+        <v>22243259.427605059</v>
+      </c>
+      <c r="O21" s="1">
+        <v>203148204.03137797</v>
+      </c>
+      <c r="P21" s="1">
+        <v>392438477.52324742</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>6088697.6787164696</v>
+      </c>
+      <c r="R21" s="1">
+        <v>98161911.656730726</v>
+      </c>
+      <c r="S21" s="1">
+        <v>901955021.13669109</v>
+      </c>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Z21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1">
+        <v>20498972.720272996</v>
+      </c>
+      <c r="C22" s="1">
+        <v>25573935.780843727</v>
+      </c>
+      <c r="D22" s="1">
+        <v>22578743.22143954</v>
+      </c>
+      <c r="E22" s="1">
+        <v>38289854.534895584</v>
+      </c>
+      <c r="F22" s="1">
+        <v>700472.78009866714</v>
+      </c>
+      <c r="G22" s="1">
+        <v>-28956568.768270563</v>
+      </c>
+      <c r="H22" s="1">
+        <v>16098287.126482436</v>
+      </c>
+      <c r="I22" s="1">
+        <v>62368022.993534587</v>
+      </c>
+      <c r="J22" s="1">
+        <v>4714856.0114633357</v>
+      </c>
+      <c r="K22" s="1">
+        <v>7717516.7010738635</v>
+      </c>
+      <c r="L22" s="1">
+        <v>8821533.813795425</v>
+      </c>
+      <c r="M22" s="1">
+        <v>5039564.8287750324</v>
+      </c>
+      <c r="N22" s="1">
+        <v>8240501.0908650504</v>
+      </c>
+      <c r="O22" s="1">
+        <v>76367185.995766118</v>
+      </c>
+      <c r="P22" s="1">
+        <v>160015567.31250858</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>712706.9416812181</v>
+      </c>
+      <c r="R22" s="1">
+        <v>5844302.6584348688</v>
+      </c>
+      <c r="S22" s="1">
+        <v>301436796.79908317</v>
+      </c>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Z22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="B23" s="2">
+        <f>SUM(B2:B22)</f>
+        <v>485016955.0026567</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" ref="C23:S23" si="1">SUM(C2:C22)</f>
+        <v>274876446.91193265</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="1"/>
+        <v>122461909.38502893</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="1"/>
+        <v>348916805.33851117</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="1"/>
+        <v>31187136.945081472</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="1"/>
+        <v>895276686.48697877</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="1"/>
+        <v>188043467.10373104</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="1"/>
+        <v>885338427.11778045</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="1"/>
+        <v>123929328.94859388</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="1"/>
+        <v>280208087.20255214</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" si="1"/>
+        <v>168140566.26127911</v>
+      </c>
+      <c r="M23" s="2">
+        <f t="shared" si="1"/>
+        <v>160122333.64576647</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" si="1"/>
+        <v>233840682.57320818</v>
+      </c>
+      <c r="O23" s="2">
+        <f t="shared" si="1"/>
+        <v>2244598341.328423</v>
+      </c>
+      <c r="P23" s="2">
+        <f t="shared" si="1"/>
+        <v>5072861919.2902861</v>
+      </c>
+      <c r="Q23" s="2">
+        <f t="shared" si="1"/>
+        <v>50979940.654157579</v>
+      </c>
+      <c r="R23" s="2">
+        <f t="shared" si="1"/>
+        <v>504060618.55859435</v>
+      </c>
+      <c r="S23" s="2">
+        <f t="shared" si="1"/>
+        <v>3941389486.3005695</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="B24" s="2">
+        <f>B22/B23</f>
+        <v>4.2264445621618962E-2</v>
+      </c>
+      <c r="C24" s="2">
+        <f>C22/C23</f>
+        <v>9.3037930561716442E-2</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="C26" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="D26">
+        <v>0.51</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="G26">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="C27" s="2">
+        <f>C21*C26</f>
+        <v>26624127.089261804</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" ref="D27:H27" si="2">D21*D26</f>
+        <v>18984811.997396931</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="2"/>
+        <v>2441190.5277388855</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="2"/>
+        <v>6322831.8116636174</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="2"/>
+        <v>1940093.6587157878</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="C28" s="2">
+        <f>C21-C27</f>
+        <v>12529000.983182024</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" ref="D28:H28" si="3">D21-D27</f>
+        <v>18240309.566126466</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="3"/>
+        <v>11080827.52757426</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="3"/>
+        <v>1696420.5362253278</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="3"/>
+        <v>16258710.372849301</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="3"/>
+        <v>25775530.037224036</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="F1:G42">
